--- a/07-arquivos-excel/aula-minigraficos.xlsx
+++ b/07-arquivos-excel/aula-minigraficos.xlsx
@@ -1,24 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelio\Google Drive\Cursos online\Curso_Excel\07 Graficos e Minigráficos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\wokspaces\start\ExcelAvançado\07-arquivos-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E14B065-0DDF-4E8B-A058-7657AB2383DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" tabRatio="741"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="741" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Desempenho da Frota" sheetId="8" r:id="rId1"/>
     <sheet name="Desempenho da Frota - Final" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -102,7 +114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -277,7 +289,7 @@
         <xdr:cNvPr id="3" name="CaixaDeTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B530947-99D5-4D97-B33F-F3233C606F56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -356,7 +368,7 @@
         <xdr:cNvPr id="4" name="CaixaDeTexto 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B530947-99D5-4D97-B33F-F3233C606F56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -468,7 +480,7 @@
         <xdr:cNvPr id="3" name="CaixaDeTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B530947-99D5-4D97-B33F-F3233C606F56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -547,7 +559,7 @@
         <xdr:cNvPr id="4" name="CaixaDeTexto 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B530947-99D5-4D97-B33F-F3233C606F56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -935,21 +947,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="3" max="5" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="19" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.7265625" customWidth="1"/>
+    <col min="3" max="5" width="30.7265625" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" customWidth="1"/>
+    <col min="8" max="19" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -960,10 +974,10 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
@@ -1016,7 +1030,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
@@ -1063,7 +1077,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
@@ -1110,7 +1124,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
@@ -1157,7 +1171,7 @@
         <v>4.3899999999999997</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
@@ -1204,8 +1218,8 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G11" s="4" t="s">
         <v>3</v>
       </c>
@@ -1246,7 +1260,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G12" s="5" t="s">
         <v>7</v>
       </c>
@@ -1287,7 +1301,7 @@
         <v>35781</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G13" s="3" t="s">
         <v>6</v>
       </c>
@@ -1328,7 +1342,7 @@
         <v>18029</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E14" s="13"/>
       <c r="G14" s="3" t="s">
         <v>5</v>
@@ -1370,7 +1384,7 @@
         <v>28960</v>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G15" s="6" t="s">
         <v>4</v>
       </c>
@@ -1411,9 +1425,9 @@
         <v>16136</v>
       </c>
     </row>
-    <row r="16" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="7:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="7:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="7:19" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="7:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G18" s="4" t="s">
         <v>21</v>
       </c>
@@ -1454,7 +1468,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="7:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G19" s="5" t="s">
         <v>7</v>
       </c>
@@ -1507,7 +1521,7 @@
         <v>15781</v>
       </c>
     </row>
-    <row r="20" spans="7:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G20" s="3" t="s">
         <v>6</v>
       </c>
@@ -1560,7 +1574,7 @@
         <v>-1971</v>
       </c>
     </row>
-    <row r="21" spans="7:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1613,7 +1627,7 @@
         <v>8960</v>
       </c>
     </row>
-    <row r="22" spans="7:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G22" s="6" t="s">
         <v>4</v>
       </c>
@@ -1670,32 +1684,122 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="stacked" displayEmptyCellsAs="gap" negative="1" xr2:uid="{A8096149-0D81-4BB1-9314-CDAFAA79D1B4}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Desempenho da Frota'!H19:S19</xm:f>
+              <xm:sqref>E6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Desempenho da Frota'!H20:S20</xm:f>
+              <xm:sqref>E7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Desempenho da Frota'!H21:S21</xm:f>
+              <xm:sqref>E8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Desempenho da Frota'!H22:S22</xm:f>
+              <xm:sqref>E9</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{7FF1B2D4-452B-4B88-8CD9-F512D8C2D3AB}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Desempenho da Frota'!H12:S12</xm:f>
+              <xm:sqref>D6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Desempenho da Frota'!H13:S13</xm:f>
+              <xm:sqref>D7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Desempenho da Frota'!H14:S14</xm:f>
+              <xm:sqref>D8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Desempenho da Frota'!H15:S15</xm:f>
+              <xm:sqref>D9</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" high="1" xr2:uid="{442C272E-C280-44B1-941F-FE7499F1CFC5}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Desempenho da Frota'!H6:S6</xm:f>
+              <xm:sqref>C6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Desempenho da Frota'!H7:S7</xm:f>
+              <xm:sqref>C7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Desempenho da Frota'!H8:S8</xm:f>
+              <xm:sqref>C8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Desempenho da Frota'!H9:S9</xm:f>
+              <xm:sqref>C9</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:S22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="3" max="5" width="25.7109375" customWidth="1"/>
-    <col min="7" max="19" width="12.7109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7265625" customWidth="1"/>
+    <col min="3" max="5" width="25.7265625" customWidth="1"/>
+    <col min="7" max="19" width="12.7265625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:19" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
@@ -1748,7 +1852,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
@@ -1795,7 +1899,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
@@ -1842,7 +1946,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
@@ -1889,7 +1993,7 @@
         <v>4.3899999999999997</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
@@ -1936,8 +2040,8 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G11" s="4" t="s">
         <v>3</v>
       </c>
@@ -1978,7 +2082,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G12" s="5" t="s">
         <v>7</v>
       </c>
@@ -2019,7 +2123,7 @@
         <v>35781</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G13" s="3" t="s">
         <v>6</v>
       </c>
@@ -2060,7 +2164,7 @@
         <v>18029</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
@@ -2101,7 +2205,7 @@
         <v>28960</v>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G15" s="6" t="s">
         <v>4</v>
       </c>
@@ -2142,9 +2246,9 @@
         <v>16136</v>
       </c>
     </row>
-    <row r="16" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="7:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="7:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="7:19" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="7:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G18" s="4" t="s">
         <v>21</v>
       </c>
@@ -2185,7 +2289,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="7:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G19" s="5" t="s">
         <v>7</v>
       </c>
@@ -2238,7 +2342,7 @@
         <v>15781</v>
       </c>
     </row>
-    <row r="20" spans="7:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G20" s="3" t="s">
         <v>6</v>
       </c>
@@ -2291,7 +2395,7 @@
         <v>-1971</v>
       </c>
     </row>
-    <row r="21" spans="7:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
@@ -2344,7 +2448,7 @@
         <v>8960</v>
       </c>
     </row>
-    <row r="22" spans="7:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:19" x14ac:dyDescent="0.35">
       <c r="G22" s="6" t="s">
         <v>4</v>
       </c>
@@ -2403,7 +2507,63 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" high="1" low="1" displayHidden="1" minAxisType="group" maxAxisType="group">
+        <x14:sparklineGroup manualMax="5" manualMin="3" lineWeight="1.5" displayEmptyCellsAs="gap" high="1" low="1" displayHidden="1" minAxisType="custom" maxAxisType="custom" xr2:uid="{00000000-0003-0000-0100-000002000000}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FF00B050"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Desempenho da Frota - Final'!H6:S6</xm:f>
+              <xm:sqref>C6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Desempenho da Frota - Final'!H7:S7</xm:f>
+              <xm:sqref>C7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Desempenho da Frota - Final'!H8:S8</xm:f>
+              <xm:sqref>C8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Desempenho da Frota - Final'!H9:S9</xm:f>
+              <xm:sqref>C9</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="stacked" displayEmptyCellsAs="gap" negative="1" displayXAxis="1" displayHidden="1" minAxisType="group" maxAxisType="group" xr2:uid="{00000000-0003-0000-0100-000001000000}">
+          <x14:colorSeries theme="9" tint="-0.249977111117893"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Desempenho da Frota - Final'!H19:S19</xm:f>
+              <xm:sqref>E6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Desempenho da Frota - Final'!H20:S20</xm:f>
+              <xm:sqref>E7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Desempenho da Frota - Final'!H21:S21</xm:f>
+              <xm:sqref>E8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>'Desempenho da Frota - Final'!H22:S22</xm:f>
+              <xm:sqref>E9</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" high="1" low="1" displayHidden="1" minAxisType="group" maxAxisType="group" xr2:uid="{00000000-0003-0000-0100-000000000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -2431,62 +2591,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup type="stacked" displayEmptyCellsAs="gap" negative="1" displayXAxis="1" displayHidden="1" minAxisType="group" maxAxisType="group">
-          <x14:colorSeries theme="9" tint="-0.249977111117893"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Desempenho da Frota - Final'!H19:S19</xm:f>
-              <xm:sqref>E6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Desempenho da Frota - Final'!H20:S20</xm:f>
-              <xm:sqref>E7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Desempenho da Frota - Final'!H21:S21</xm:f>
-              <xm:sqref>E8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Desempenho da Frota - Final'!H22:S22</xm:f>
-              <xm:sqref>E9</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup manualMax="5" manualMin="3" lineWeight="1.5" displayEmptyCellsAs="gap" high="1" low="1" displayHidden="1" minAxisType="custom" maxAxisType="custom">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FF00B050"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Desempenho da Frota - Final'!H6:S6</xm:f>
-              <xm:sqref>C6</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Desempenho da Frota - Final'!H7:S7</xm:f>
-              <xm:sqref>C7</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Desempenho da Frota - Final'!H8:S8</xm:f>
-              <xm:sqref>C8</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>'Desempenho da Frota - Final'!H9:S9</xm:f>
-              <xm:sqref>C9</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
